--- a/LOOKUP.xlsx
+++ b/LOOKUP.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vishal data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{9BFF3D28-0677-49C0-BEB0-8717B6B29619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A6F9B-B3F6-49D2-8909-00EF2CE6A289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{F76017E5-F582-43A8-939F-5D195257128D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{F76017E5-F582-43A8-939F-5D195257128D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t xml:space="preserve">COURSE </t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>X - LOOKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE </t>
   </si>
 </sst>
 </file>
@@ -456,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1512530-1288-46D7-8244-7FB1FBDFC22D}">
   <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,4 +672,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE22C02-1495-43B3-8483-170A8C057A03}">
+  <dimension ref="B4:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(B5,Sheet1!$H$4:$J$8,2,0)</f>
+        <v>MI</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(B5,Sheet1!$H$4:$J$8,3,0)</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(B6,Sheet1!$H$4:$J$8,2,0)</f>
+        <v>REALME</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(B6,Sheet1!$H$4:$J$8,3,0)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7,Sheet1!$H$4:$J$8,2,0)</f>
+        <v>SAMSUNG</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(B7,Sheet1!$H$4:$J$8,3,0)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8,Sheet1!$H$4:$J$8,2,0)</f>
+        <v>LENOVO</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(B8,Sheet1!$H$4:$J$8,3,0)</f>
+        <v>38000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>